--- a/Assets/AssetExcelData~/UIPrefabData.xlsx
+++ b/Assets/AssetExcelData~/UIPrefabData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>UIName</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Assets/Res/UI/UIPrefab/CloundMusicPrefab/CloundMusicTop.prefab</t>
+  </si>
+  <si>
+    <t>SerachSongsDataItemData</t>
+  </si>
+  <si>
+    <t>Assets/Res/UI/UIPrefab/CloundMusicPrefab/SerachSongsDataItem.prefab</t>
+  </si>
+  <si>
+    <t>SerachSongsInfo</t>
+  </si>
+  <si>
+    <t>Assets/Res/UI/UIPrefab/CloundMusicPrefab/SerachSongsInfo.prefab</t>
   </si>
 </sst>
 </file>
@@ -1034,15 +1046,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="88.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
@@ -1108,6 +1120,22 @@
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/AssetExcelData~/UIPrefabData.xlsx
+++ b/Assets/AssetExcelData~/UIPrefabData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>UIName</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Assets/Res/UI/UIPrefab/CloundMusicPrefab/SerachSongsInfo.prefab</t>
+  </si>
+  <si>
+    <t>LyricsPortray</t>
+  </si>
+  <si>
+    <t>Assets/Res/UI/UIPrefab/CloundMusicPrefab/LyricsPortray.prefab</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1136,6 +1142,14 @@
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/AssetExcelData~/UIPrefabData.xlsx
+++ b/Assets/AssetExcelData~/UIPrefabData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>UIName</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>Assets/Res/UI/UIPrefab/CloundMusicPrefab/LyricsPortray.prefab</t>
+  </si>
+  <si>
+    <t>CloundMusicPlayList</t>
+  </si>
+  <si>
+    <t>Assets/Res/UI/UIPrefab/CloundMusicPrefab/CloundMusicPlayList.prefab</t>
+  </si>
+  <si>
+    <t>PlayListItem</t>
+  </si>
+  <si>
+    <t>Assets/Res/UI/UIPrefab/CloundMusicPrefab/PlayListItem.prefab</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1150,6 +1162,22 @@
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/AssetExcelData~/UIPrefabData.xlsx
+++ b/Assets/AssetExcelData~/UIPrefabData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>UIName</t>
   </si>
@@ -27,24 +27,6 @@
     <t>UIPrefabRes</t>
   </si>
   <si>
-    <t>MainInterface</t>
-  </si>
-  <si>
-    <t>Assets/Res/UI/UIPrefab/MainInterface.prefab</t>
-  </si>
-  <si>
-    <t>MusicLogin</t>
-  </si>
-  <si>
-    <t>Assets/Res/UI/UIPrefab/MusicLogin.prefab</t>
-  </si>
-  <si>
-    <t>LyricsInterface</t>
-  </si>
-  <si>
-    <t>Assets/Res/UI/UIPrefab/LyricsInterface.prefab</t>
-  </si>
-  <si>
     <t>CloundMusicDown</t>
   </si>
   <si>
@@ -91,6 +73,12 @@
   </si>
   <si>
     <t>Assets/Res/UI/UIPrefab/CloundMusicPrefab/PlayListItem.prefab</t>
+  </si>
+  <si>
+    <t>CloudMusicLogin</t>
+  </si>
+  <si>
+    <t>Assets/Res/UI/UIPrefab/CloundMusicPrefab/CloudMusicLogin.prefab</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1089,32 +1077,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
@@ -1162,22 +1147,6 @@
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
